--- a/tablas/sesion_07.xlsx
+++ b/tablas/sesion_07.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="factura_sandwhiches" sheetId="2" r:id="rId1"/>
@@ -276,16 +276,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="174" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -807,15 +806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -830,29 +820,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -860,15 +832,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -892,25 +855,16 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -924,27 +878,18 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,17 +908,17 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -986,13 +931,13 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="10" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,49 +948,22 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,40 +975,31 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1101,6 +1010,96 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1385,9 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1400,100 +1397,100 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="38"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <v>24.99</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="33"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="30"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="33">
         <v>29.99</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="33"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="36" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="H6" s="41" t="s">
+      <c r="E6" s="31"/>
+      <c r="H6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="32"/>
+      <c r="H7" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="36" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="37" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1517,14 +1514,14 @@
   <sheetData>
     <row r="1" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="150"/>
     </row>
     <row r="3" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="9"/>
@@ -1627,130 +1624,130 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
     </row>
     <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="44">
         <v>2020</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="44">
         <v>2021</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="45">
         <v>2022</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="49">
         <v>22568</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="49">
         <v>23678</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="50">
         <v>28976</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="49">
         <v>500</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="49">
         <v>750</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="49">
         <v>750</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="49">
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="49">
         <v>12344</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="49">
         <v>10262</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="50">
         <v>13459</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="49">
         <v>2738</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="49">
         <v>2899</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="50">
         <v>3012</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="51">
         <v>15645</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="51">
         <v>15899</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="52">
         <v>16722</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="2"/>
@@ -1758,7 +1755,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="4"/>
@@ -1766,7 +1763,7 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="4"/>
@@ -1774,7 +1771,7 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="56" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="4"/>
@@ -1782,7 +1779,7 @@
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="6"/>
@@ -1813,19 +1810,19 @@
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1833,123 +1830,123 @@
       <c r="B3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="73">
+      <c r="C3" s="58">
         <v>5677</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="58">
         <v>34567</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="58">
         <v>9877</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="58">
         <v>92742</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="58">
         <v>6058</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="58">
         <v>36829</v>
       </c>
-      <c r="E4" s="73">
+      <c r="E4" s="58">
         <v>11029</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="58">
         <v>100692</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="73">
+      <c r="C5" s="58">
         <v>4598</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="58">
         <v>28974</v>
       </c>
-      <c r="E5" s="73">
+      <c r="E5" s="58">
         <v>6789</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="58">
         <v>92607</v>
       </c>
-      <c r="G5" s="74"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="58">
         <v>7463</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="58">
         <v>42849</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="58">
         <v>12738</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="58">
         <v>110029</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="58">
         <v>6393</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="58">
         <v>87654</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="58">
         <v>5393</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="60">
         <v>87267.4</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="77"/>
-      <c r="G9" s="78"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="39" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1957,111 +1954,111 @@
       <c r="B11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="58">
         <v>9754</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="58">
         <v>35696</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="58">
         <v>11097</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="58">
         <v>100987</v>
       </c>
-      <c r="G11" s="74"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="58">
         <v>12435</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="58">
         <v>57865</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="58">
         <v>12468</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="58">
         <v>116753</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="58">
         <v>13578</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="58">
         <v>98756</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="58">
         <v>34557</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="58">
         <v>99876</v>
       </c>
-      <c r="G13" s="74"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="58">
         <v>9845</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="58">
         <v>110487</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="58">
         <v>28965</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="58">
         <v>107856</v>
       </c>
-      <c r="G14" s="74"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="58">
         <v>10965</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="58">
         <v>96785</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="58">
         <v>36846</v>
       </c>
-      <c r="F15" s="75">
+      <c r="F15" s="60">
         <v>108567.67</v>
       </c>
-      <c r="G15" s="74"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="74"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="74"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2083,208 +2080,208 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="159"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="67">
         <v>2020</v>
       </c>
-      <c r="D3" s="85">
+      <c r="D3" s="67">
         <v>2021</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="68">
         <v>2022</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="104">
+      <c r="H3" s="86">
         <v>2020</v>
       </c>
-      <c r="I3" s="105">
+      <c r="I3" s="87">
         <v>2021</v>
       </c>
-      <c r="J3" s="106">
+      <c r="J3" s="88">
         <v>2022</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="74">
         <v>22568</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="75">
         <v>23678</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="76">
         <v>28976</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="4"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="77">
         <v>500</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="84"/>
       <c r="I5" s="4"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="95">
+      <c r="C6" s="77">
         <v>1000</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="91" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="84"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="77">
         <v>750</v>
       </c>
-      <c r="D7" s="96">
+      <c r="D7" s="78">
         <v>764</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="79">
         <v>456</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="68" t="s">
+      <c r="G7" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="102"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="4"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="95">
+      <c r="C8" s="77">
         <v>12344</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="78">
         <v>10282</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="79">
         <v>13459</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="102"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="4"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="95">
+      <c r="C9" s="77">
         <v>45678</v>
       </c>
-      <c r="D9" s="96">
+      <c r="D9" s="78">
         <v>55865</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="79">
         <v>62365</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="68" t="s">
+      <c r="G9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="102"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="4"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="95">
+      <c r="C10" s="77">
         <v>2738</v>
       </c>
-      <c r="D10" s="96">
+      <c r="D10" s="78">
         <v>2899</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="79">
         <v>3012</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="29"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="80">
         <v>15645</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="81">
         <v>15899</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="82">
         <v>16722</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="4"/>
     </row>
   </sheetData>
@@ -2311,184 +2308,184 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="G2" s="113" t="s">
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="G2" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="44">
         <v>2020</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="44">
         <v>2021</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="45">
         <v>2022</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
     </row>
     <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="49">
         <v>22568</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="49">
         <v>23678</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="50">
         <v>28976</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="49">
         <v>500</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="49">
         <v>750</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="50">
         <v>100</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="162"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="49">
         <v>750</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="49">
         <v>0</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="50">
         <v>0</v>
       </c>
-      <c r="G6" s="120"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="121"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="168"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="49">
         <v>12344</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="49">
         <v>10262</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="50">
         <v>13459</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="121"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="49">
         <v>2738</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="49">
         <v>2899</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="50">
         <v>3012</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="164"/>
+      <c r="J8" s="164"/>
+      <c r="K8" s="165"/>
     </row>
     <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="51">
         <v>15645</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="51">
         <v>15899</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="52">
         <v>16722</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="110" t="s">
+      <c r="H10" s="92" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="111">
+      <c r="G11" s="93">
         <v>2020</v>
       </c>
-      <c r="H11" s="112">
+      <c r="H11" s="94">
         <v>2021</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
     </row>
     <row r="17" spans="7:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2518,109 +2515,109 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="131"/>
+      <c r="C2" s="104"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="124"/>
+      <c r="C3" s="97"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="125"/>
+      <c r="C4" s="98"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="126"/>
+      <c r="C5" s="99"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="126"/>
+      <c r="C6" s="99"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="123"/>
-      <c r="C7" s="127"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="100"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="128" t="s">
+      <c r="B8" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="129"/>
+      <c r="C8" s="102"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="130"/>
+      <c r="C10" s="103"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139" t="s">
+      <c r="B13" s="111"/>
+      <c r="C13" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="140" t="s">
+      <c r="D13" s="113" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="141">
+      <c r="B14" s="114">
         <v>2021</v>
       </c>
-      <c r="C14" s="133"/>
-      <c r="D14" s="134"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="142">
+      <c r="B15" s="115">
         <v>2022</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="134"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="107"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="142">
+      <c r="B16" s="115">
         <v>2023</v>
       </c>
-      <c r="C16" s="135"/>
-      <c r="D16" s="134"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="107"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="142">
+      <c r="B17" s="115">
         <v>2024</v>
       </c>
-      <c r="C17" s="135"/>
-      <c r="D17" s="134"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="107"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="142">
+      <c r="B18" s="115">
         <v>2025</v>
       </c>
-      <c r="C18" s="135"/>
-      <c r="D18" s="134"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="107"/>
     </row>
     <row r="19" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="143">
+      <c r="B19" s="116">
         <v>2026</v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2645,135 +2642,135 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="171"/>
-      <c r="G2" s="145"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="141"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="159">
+      <c r="B3" s="129">
         <v>0.1</v>
       </c>
-      <c r="C3" s="162"/>
+      <c r="C3" s="132"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="160">
+      <c r="B4" s="130">
         <v>0.2</v>
       </c>
-      <c r="C4" s="163"/>
+      <c r="C4" s="133"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="160">
+      <c r="B5" s="130">
         <v>0.3</v>
       </c>
-      <c r="C5" s="163"/>
+      <c r="C5" s="133"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="160">
+      <c r="B6" s="130">
         <v>0.4</v>
       </c>
-      <c r="C6" s="163"/>
+      <c r="C6" s="133"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="160">
+      <c r="B7" s="130">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C7" s="163"/>
+      <c r="C7" s="133"/>
     </row>
     <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="161">
+      <c r="B8" s="131">
         <v>0.7</v>
       </c>
-      <c r="C8" s="164"/>
+      <c r="C8" s="134"/>
     </row>
     <row r="9" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="146" t="s">
+      <c r="B10" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
     </row>
     <row r="11" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="153" t="s">
+      <c r="C11" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154" t="s">
+      <c r="D11" s="123"/>
+      <c r="E11" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154" t="s">
+      <c r="F11" s="124"/>
+      <c r="G11" s="124" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="168">
+      <c r="B12" s="138">
         <v>8</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="149"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="119"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="169">
+      <c r="B13" s="139">
         <v>16</v>
       </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="150"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="120"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="169">
+      <c r="B14" s="139">
         <v>24</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="150"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="120"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="169">
+      <c r="B15" s="139">
         <v>32</v>
       </c>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="150"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="120"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="169">
+      <c r="B16" s="139">
         <v>40</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="150"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="120"/>
     </row>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="170">
+      <c r="B17" s="140">
         <v>48</v>
       </c>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="151"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
